--- a/medicine/Enfance/Chien_Bleu/Chien_Bleu.xlsx
+++ b/medicine/Enfance/Chien_Bleu/Chien_Bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chien Bleu est un album jeunesse écrit et illustré de Nadja paru en 1989 (L'École des Loisirs).
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un soir, un chien de couleur bleue vient à la rencontre de Charlotte, une petite fille. Mais la mère de Charlotte refuse de l'adopter[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un soir, un chien de couleur bleue vient à la rencontre de Charlotte, une petite fille. Mais la mère de Charlotte refuse de l'adopter,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Thèmes et technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'album est réalisé à la gouache[3],[2]. Il aborde principalement le thème de la différence[4] à travers une réflexion sur la peur de l'autre[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'album est réalisé à la gouache,. Il aborde principalement le thème de la différence à travers une réflexion sur la peur de l'autre,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Accueil critique et récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chien bleu obtient un prix au Salon du livre et de la presse jeunesse en 1989[5]. Télérama le décrit comme un « chef-d’œuvre de sagesse et de merveilleux ».  En 2014, France Inter l'inclut dans sa liste des « livres jeunesse incontournables des trente dernières années »[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chien bleu obtient un prix au Salon du livre et de la presse jeunesse en 1989. Télérama le décrit comme un « chef-d’œuvre de sagesse et de merveilleux ».  En 2014, France Inter l'inclut dans sa liste des « livres jeunesse incontournables des trente dernières années ».
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chien Bleu est édité pour la première fois par L'École des Loisirs en 1989[5]. Il est réédité en petit format en 2018[2]. Il est également édité en livre audio[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chien Bleu est édité pour la première fois par L'École des Loisirs en 1989. Il est réédité en petit format en 2018. Il est également édité en livre audio.
 </t>
         </is>
       </c>
